--- a/resources/datapool/CredencialesRegistro.xlsx
+++ b/resources/datapool/CredencialesRegistro.xlsx
@@ -27,47 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
-  <si>
-    <t>User Name</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>secret</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State/Province</t>
-  </si>
-  <si>
-    <t>Postal Code</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Confirm Password</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
@@ -96,6 +60,45 @@
   </si>
   <si>
     <t>630001A</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>postalCode</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>confirmPassword</t>
   </si>
 </sst>
 </file>
@@ -433,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -448,82 +451,84 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3">
         <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="L2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
